--- a/tables/ggplot2.xlsx
+++ b/tables/ggplot2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422CD225-5FF3-7540-9884-7851B4E6126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F22110-8844-1F47-ADBD-57CECF212661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{05B51B1F-1FD3-334E-8076-A5AF2A8D95E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>author</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>ggplot2: Elegant Graphics for Data Analysis (3e) (in progress)</t>
+  </si>
+  <si>
+    <t>Top R Graph Examples: A Curated Collection</t>
+  </si>
+  <si>
+    <t>https://r-graph-gallery.com/best-r-chart-examples.html</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBF1DF-41D9-5E4D-8FF8-C8F382D420D6}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,190 +795,201 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/tables/ggplot2.xlsx
+++ b/tables/ggplot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F22110-8844-1F47-ADBD-57CECF212661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29907B0-469A-2D4B-893C-7191DA6FD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{05B51B1F-1FD3-334E-8076-A5AF2A8D95E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>author</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>https://r-graph-gallery.com/best-r-chart-examples.html</t>
+  </si>
+  <si>
+    <t>https://www.databrewer.co/R/gallery</t>
+  </si>
+  <si>
+    <t>DataBrewer</t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBF1DF-41D9-5E4D-8FF8-C8F382D420D6}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,13 +770,13 @@
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -778,10 +784,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -789,207 +795,218 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/tables/ggplot2.xlsx
+++ b/tables/ggplot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29907B0-469A-2D4B-893C-7191DA6FD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8FC63-E443-794C-BC7D-C4858BFF166E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{05B51B1F-1FD3-334E-8076-A5AF2A8D95E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>author</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>DataBrewer</t>
+  </si>
+  <si>
+    <t>ggalign: Bridging the Grammar of Graphics and Complex layout</t>
+  </si>
+  <si>
+    <t>https://yunuuuu.github.io/ggalign-book/</t>
+  </si>
+  <si>
+    <t>Yun Peng</t>
   </si>
 </sst>
 </file>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBF1DF-41D9-5E4D-8FF8-C8F382D420D6}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,6 +1019,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/ggplot2.xlsx
+++ b/tables/ggplot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8FC63-E443-794C-BC7D-C4858BFF166E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACA935-4394-5D4E-843B-1EFB2161F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{05B51B1F-1FD3-334E-8076-A5AF2A8D95E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>author</t>
   </si>
@@ -310,6 +310,39 @@
   </si>
   <si>
     <t>Yun Peng</t>
+  </si>
+  <si>
+    <t>Visualization for Social Data Science</t>
+  </si>
+  <si>
+    <t>https://vis4sds.github.io/vis4sds/</t>
+  </si>
+  <si>
+    <t>Roger Beecham</t>
+  </si>
+  <si>
+    <t>Nicola Rennie</t>
+  </si>
+  <si>
+    <t>Data Art Gallery</t>
+  </si>
+  <si>
+    <t>https://nrennie.rbind.io/data-art/</t>
+  </si>
+  <si>
+    <t>Drawing with D3</t>
+  </si>
+  <si>
+    <t>https://nrennie.rbind.io/drawing-with-d3/</t>
+  </si>
+  <si>
+    <t>Data Visualizations</t>
+  </si>
+  <si>
+    <t>https://stevenponce.netlify.app/data_visualizations.html#data-visualization-portfolio</t>
+  </si>
+  <si>
+    <t>Steven Ponce</t>
   </si>
 </sst>
 </file>
@@ -665,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBF1DF-41D9-5E4D-8FF8-C8F382D420D6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,13 +823,13 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -804,10 +837,10 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -815,219 +848,263 @@
         <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
